--- a/public/excelPatterns/Template.xlsx
+++ b/public/excelPatterns/Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mukhammad-umaryokubjonov/Desktop/Projects/student-card/public/excelPatterns/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A295EB6-B62C-AF47-A9B6-9676F634EBAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5B2D1F-7DEF-D346-ABD5-FE16FCDBBC8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,17 +27,17 @@
     <t>ПИНФЛ</t>
   </si>
   <si>
-    <t>CLI_CODE</t>
+    <t>Номер телефона</t>
   </si>
   <si>
-    <t>BIRDATE</t>
+    <t>Дата выдачи паспорта</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,6 +60,12 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -69,27 +75,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -107,16 +98,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,18 +452,18 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="21" style="1" customWidth="1"/>
     <col min="7" max="7" width="19.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" style="3" customWidth="1"/>
     <col min="9" max="9" width="20.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="26.5" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
@@ -478,26 +472,25 @@
     <col min="14" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I8" s="3"/>
+      <c r="I8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/excelPatterns/Template.xlsx
+++ b/public/excelPatterns/Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mukhammad-umaryokubjonov/Desktop/Projects/student-card/public/excelPatterns/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5B2D1F-7DEF-D346-ABD5-FE16FCDBBC8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C20D1D4-E07A-6E4F-833D-47BB615B4BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,15 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>ПИНФЛ</t>
   </si>
   <si>
     <t>Номер телефона</t>
-  </si>
-  <si>
-    <t>Дата выдачи паспорта</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -479,9 +476,7 @@
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="C1" s="4"/>
       <c r="E1"/>
       <c r="F1"/>
       <c r="G1"/>
